--- a/April'21/07.04.2021/Market Due.xlsx
+++ b/April'21/07.04.2021/Market Due.xlsx
@@ -1027,10 +1027,10 @@
     <t>Date:30/31.03.2021</t>
   </si>
   <si>
-    <t>Date:03.04.2021(G.A Achieve)</t>
+    <t>Till-03.40 PM</t>
   </si>
   <si>
-    <t>Till-03.40 PM</t>
+    <t>Date:11.04.2021(G.A Achieve)</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,9 +1612,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1934,28 +1934,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2257,11 +2257,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="58">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="59"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2294,28 +2294,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2659,11 +2659,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2694,28 +2694,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3066,11 +3066,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3101,28 +3101,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3472,11 +3472,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3507,28 +3507,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3890,11 +3890,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3925,28 +3925,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4308,11 +4308,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4345,28 +4345,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4728,11 +4728,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4773,28 +4773,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5156,11 +5156,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>215937</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5201,28 +5201,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5584,11 +5584,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>181155</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5629,28 +5629,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6018,11 +6018,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>185894</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -6063,28 +6063,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6463,11 +6463,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <f>SUM(B6:B29)</f>
         <v>185236</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="73"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -6506,28 +6506,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6853,11 +6853,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6890,28 +6890,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7290,11 +7290,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <f>SUM(B6:B29)</f>
         <v>175115</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="73"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7335,28 +7335,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7733,11 +7733,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <f>SUM(B6:B29)</f>
         <v>153118</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="73"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7778,28 +7778,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8178,11 +8178,11 @@
       <c r="A30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="72">
         <f>SUM(B6:B29)</f>
         <v>167087</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="73"/>
       <c r="F30" s="44"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8208,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8225,11 +8225,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="A1" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
     </row>
@@ -8241,7 +8241,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>61</v>
@@ -8255,10 +8255,12 @@
       <c r="B3" s="28">
         <v>5</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
       <c r="D3" s="28">
         <f>B3-C3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="41"/>
     </row>
@@ -8269,12 +8271,12 @@
       <c r="B4" s="28">
         <v>20</v>
       </c>
-      <c r="C4" s="28">
-        <v>1</v>
+      <c r="C4" s="45">
+        <v>0</v>
       </c>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="41"/>
     </row>
@@ -8286,11 +8288,11 @@
         <v>21</v>
       </c>
       <c r="C5" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -8301,10 +8303,12 @@
       <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="41"/>
     </row>
@@ -8315,7 +8319,9 @@
       <c r="B7" s="28">
         <v>3</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8331,11 +8337,11 @@
         <v>5</v>
       </c>
       <c r="C8" s="28">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-23</v>
       </c>
       <c r="E8" s="37"/>
       <c r="G8" s="34"/>
@@ -8349,11 +8355,11 @@
         <v>10</v>
       </c>
       <c r="C9" s="28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8364,10 +8370,12 @@
       <c r="B10" s="28">
         <v>10</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -8379,11 +8387,11 @@
         <v>25</v>
       </c>
       <c r="C11" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8394,10 +8402,12 @@
       <c r="B12" s="28">
         <v>15</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="28">
+        <v>3</v>
+      </c>
       <c r="D12" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -8424,12 +8434,12 @@
       <c r="B14" s="28">
         <v>20</v>
       </c>
-      <c r="C14" s="28">
-        <v>2</v>
+      <c r="C14" s="45">
+        <v>0</v>
       </c>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="37"/>
     </row>
@@ -8441,11 +8451,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="37"/>
     </row>
@@ -8456,7 +8466,9 @@
       <c r="B16" s="28">
         <v>10</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8470,10 +8482,12 @@
       <c r="B17" s="28">
         <v>5</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
       <c r="D17" s="28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -8484,10 +8498,12 @@
       <c r="B18" s="28">
         <v>20</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="37"/>
     </row>
@@ -8498,12 +8514,12 @@
       <c r="B19" s="28">
         <v>15</v>
       </c>
-      <c r="C19" s="28">
-        <v>1</v>
+      <c r="C19" s="45">
+        <v>0</v>
       </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="41"/>
     </row>
@@ -8514,10 +8530,12 @@
       <c r="B20" s="28">
         <v>30</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="41"/>
     </row>
@@ -8529,11 +8547,11 @@
         <v>20</v>
       </c>
       <c r="C21" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="37"/>
     </row>
@@ -8544,7 +8562,9 @@
       <c r="B22" s="33">
         <v>2</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="45">
+        <v>0</v>
+      </c>
       <c r="D22" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8559,11 +8579,11 @@
         <v>5</v>
       </c>
       <c r="C23" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="37"/>
     </row>
@@ -8577,11 +8597,11 @@
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E24" s="40"/>
     </row>
@@ -8611,10 +8631,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -9012,12 +9032,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9371,28 +9391,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9712,11 +9732,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9747,28 +9767,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10100,11 +10120,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10135,28 +10155,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10488,11 +10508,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10523,28 +10543,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10880,11 +10900,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10915,28 +10935,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11278,11 +11298,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11313,28 +11333,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -11678,11 +11698,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11713,28 +11733,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -12083,11 +12103,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="72">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="72"/>
+      <c r="C29" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
